--- a/biology/Médecine/Cancer_provoqué_par_les_amines_aromatiques/Cancer_provoqué_par_les_amines_aromatiques.xlsx
+++ b/biology/Médecine/Cancer_provoqué_par_les_amines_aromatiques/Cancer_provoqué_par_les_amines_aromatiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cancer_provoqu%C3%A9_par_les_amines_aromatiques</t>
+          <t>Cancer_provoqué_par_les_amines_aromatiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'un cancer provoqué par les amines aromatiques soit reconnue comme maladie professionnelle.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical. Sont concernées des substances limitativement énumérées comme la 4-aminobiphényle, la benzidine et la 2-naphtylamine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cancer_provoqu%C3%A9_par_les_amines_aromatiques</t>
+          <t>Cancer_provoqué_par_les_amines_aromatiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Données professionnelles
-Données médicales</t>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
